--- a/MPU6050与各开发板连接说明/野火MPU6050与各开发板引脚连接说明.xlsx
+++ b/MPU6050与各开发板连接说明/野火MPU6050与各开发板引脚连接说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>MPU6050模块与各开发板引脚连接说明</t>
   </si>
@@ -71,7 +71,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">3.3/5V </t>
     </r>
@@ -103,7 +103,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>I2C</t>
     </r>
@@ -121,7 +121,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>SCL  (</t>
     </r>
@@ -139,7 +139,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -159,7 +159,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>I2C</t>
     </r>
@@ -177,7 +177,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>SDA (</t>
     </r>
@@ -195,7 +195,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>)</t>
     </r>
@@ -224,7 +224,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -246,19 +246,17 @@
   </si>
   <si>
     <t>PI1</t>
+  </si>
+  <si>
+    <t>PF7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,7 +284,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -315,158 +313,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,7 +328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.0499893185216834"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,7 +346,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,198 +358,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -778,251 +445,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1032,25 +457,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,67 +496,35 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1437,438 +815,438 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="24.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
-    <col min="5" max="9" width="17.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="21.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="2" customWidth="1"/>
+    <col min="5" max="9" width="17.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="21.109375" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="22.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="21"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
-      <c r="A4" s="10">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="10">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="27" spans="1:13">
-      <c r="A6" s="10">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:13">
-      <c r="A7" s="10">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="23" t="s">
+      <c r="M8" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="10">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="23" t="s">
+      <c r="M9" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="17"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="18"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="18"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1881,40 +1259,34 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D3:M3"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/MPU6050与各开发板连接说明/野火MPU6050与各开发板引脚连接说明.xlsx
+++ b/MPU6050与各开发板连接说明/野火MPU6050与各开发板引脚连接说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468"/>
+    <workbookView windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>MPU6050模块与各开发板引脚连接说明</t>
   </si>
@@ -71,7 +71,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3.3/5V </t>
     </r>
@@ -103,7 +103,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>I2C</t>
     </r>
@@ -121,7 +121,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>SCL  (</t>
     </r>
@@ -139,7 +139,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>PB6</t>
+  </si>
+  <si>
+    <t>PB8</t>
   </si>
   <si>
     <t>SDA</t>
@@ -159,7 +162,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>I2C</t>
     </r>
@@ -177,7 +180,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>SDA (</t>
     </r>
@@ -195,7 +198,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -205,6 +208,9 @@
   </si>
   <si>
     <t>PB7</t>
+  </si>
+  <si>
+    <t>PB9</t>
   </si>
   <si>
     <t>AD0</t>
@@ -224,7 +230,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -245,18 +251,23 @@
     <t>PA8</t>
   </si>
   <si>
+    <t>PF7</t>
+  </si>
+  <si>
     <t>PI1</t>
-  </si>
-  <si>
-    <t>PF7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,7 +295,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -305,21 +316,151 @@
       <charset val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,7 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <fgColor theme="1" tint="0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,12 +499,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -445,11 +766,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -457,12 +1020,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,38 +1071,61 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -815,438 +1416,438 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="2" customWidth="1"/>
-    <col min="5" max="9" width="17.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="21.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.775" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.1083333333333" style="2" customWidth="1"/>
+    <col min="5" max="9" width="17.775" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.2166666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="13" width="21.1083333333333" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="22.5" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" s="1" customFormat="1" spans="1:13">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:13">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:13">
+      <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="E7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="C8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="D9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="17" t="s">
+      <c r="G9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1259,34 +1860,40 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D3:M3"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>